--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.78646733333333</v>
+        <v>46.62552400000001</v>
       </c>
       <c r="H2">
-        <v>110.359402</v>
+        <v>139.876572</v>
       </c>
       <c r="I2">
-        <v>0.1576941973553631</v>
+        <v>0.1981356926336952</v>
       </c>
       <c r="J2">
-        <v>0.1576941973553631</v>
+        <v>0.1981356926336952</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.158627</v>
+        <v>0.450595</v>
       </c>
       <c r="N2">
-        <v>3.475881</v>
+        <v>1.351785</v>
       </c>
       <c r="O2">
-        <v>0.09636025486884757</v>
+        <v>0.02359906163447434</v>
       </c>
       <c r="P2">
-        <v>0.09636025486884757</v>
+        <v>0.02359906163447434</v>
       </c>
       <c r="Q2">
-        <v>42.62179428701798</v>
+        <v>21.00922798678</v>
       </c>
       <c r="R2">
-        <v>383.5961485831619</v>
+        <v>189.08305188102</v>
       </c>
       <c r="S2">
-        <v>0.01519545304850113</v>
+        <v>0.004675816422451838</v>
       </c>
       <c r="T2">
-        <v>0.01519545304850113</v>
+        <v>0.004675816422451837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.78646733333333</v>
+        <v>46.62552400000001</v>
       </c>
       <c r="H3">
-        <v>110.359402</v>
+        <v>139.876572</v>
       </c>
       <c r="I3">
-        <v>0.1576941973553631</v>
+        <v>0.1981356926336952</v>
       </c>
       <c r="J3">
-        <v>0.1576941973553631</v>
+        <v>0.1981356926336952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.450595</v>
+        <v>0.66954</v>
       </c>
       <c r="N3">
-        <v>1.351785</v>
+        <v>2.00862</v>
       </c>
       <c r="O3">
-        <v>0.03747491560496034</v>
+        <v>0.03506589226854703</v>
       </c>
       <c r="P3">
-        <v>0.03747491560496033</v>
+        <v>0.03506589226854703</v>
       </c>
       <c r="Q3">
-        <v>16.57579824806333</v>
+        <v>31.21765333896001</v>
       </c>
       <c r="R3">
-        <v>149.18218423257</v>
+        <v>280.95888005064</v>
       </c>
       <c r="S3">
-        <v>0.005909576737284191</v>
+        <v>0.006947804852447105</v>
       </c>
       <c r="T3">
-        <v>0.00590957673728419</v>
+        <v>0.006947804852447103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.78646733333333</v>
+        <v>46.62552400000001</v>
       </c>
       <c r="H4">
-        <v>110.359402</v>
+        <v>139.876572</v>
       </c>
       <c r="I4">
-        <v>0.1576941973553631</v>
+        <v>0.1981356926336952</v>
       </c>
       <c r="J4">
-        <v>0.1576941973553631</v>
+        <v>0.1981356926336952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4804876666666667</v>
+        <v>17.97363266666667</v>
       </c>
       <c r="N4">
-        <v>1.441463</v>
+        <v>53.920898</v>
       </c>
       <c r="O4">
-        <v>0.03996101767120729</v>
+        <v>0.9413350460969786</v>
       </c>
       <c r="P4">
-        <v>0.03996101767120729</v>
+        <v>0.9413350460969786</v>
       </c>
       <c r="Q4">
-        <v>17.67544385390289</v>
+        <v>838.0300412668507</v>
       </c>
       <c r="R4">
-        <v>159.078994685126</v>
+        <v>7542.270371401657</v>
       </c>
       <c r="S4">
-        <v>0.006301620607164513</v>
+        <v>0.1865120713587963</v>
       </c>
       <c r="T4">
-        <v>0.006301620607164513</v>
+        <v>0.1865120713587962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.78646733333333</v>
+        <v>103.9192913333333</v>
       </c>
       <c r="H5">
-        <v>110.359402</v>
+        <v>311.757874</v>
       </c>
       <c r="I5">
-        <v>0.1576941973553631</v>
+        <v>0.441606206212991</v>
       </c>
       <c r="J5">
-        <v>0.1576941973553631</v>
+        <v>0.4416062062129909</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.934199999999999</v>
+        <v>0.450595</v>
       </c>
       <c r="N5">
-        <v>29.8026</v>
+        <v>1.351785</v>
       </c>
       <c r="O5">
-        <v>0.8262038118549848</v>
+        <v>0.02359906163447434</v>
       </c>
       <c r="P5">
-        <v>0.8262038118549848</v>
+        <v>0.02359906163447434</v>
       </c>
       <c r="Q5">
-        <v>365.4441237827999</v>
+        <v>46.82551307834333</v>
       </c>
       <c r="R5">
-        <v>3288.997114045199</v>
+        <v>421.42961770509</v>
       </c>
       <c r="S5">
-        <v>0.1302875469624132</v>
+        <v>0.01042149207858676</v>
       </c>
       <c r="T5">
-        <v>0.1302875469624132</v>
+        <v>0.01042149207858676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>311.757874</v>
       </c>
       <c r="I6">
-        <v>0.445475481188675</v>
+        <v>0.441606206212991</v>
       </c>
       <c r="J6">
-        <v>0.445475481188675</v>
+        <v>0.4416062062129909</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.158627</v>
+        <v>0.66954</v>
       </c>
       <c r="N6">
-        <v>3.475881</v>
+        <v>2.00862</v>
       </c>
       <c r="O6">
-        <v>0.09636025486884757</v>
+        <v>0.03506589226854703</v>
       </c>
       <c r="P6">
-        <v>0.09636025486884757</v>
+        <v>0.03506589226854703</v>
       </c>
       <c r="Q6">
-        <v>120.403696759666</v>
+        <v>69.57812231932</v>
       </c>
       <c r="R6">
-        <v>1083.633270836994</v>
+        <v>626.2031008738801</v>
       </c>
       <c r="S6">
-        <v>0.04292613090516324</v>
+        <v>0.01548531565218651</v>
       </c>
       <c r="T6">
-        <v>0.04292613090516324</v>
+        <v>0.0154853156521865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>311.757874</v>
       </c>
       <c r="I7">
-        <v>0.445475481188675</v>
+        <v>0.441606206212991</v>
       </c>
       <c r="J7">
-        <v>0.445475481188675</v>
+        <v>0.4416062062129909</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.450595</v>
+        <v>17.97363266666667</v>
       </c>
       <c r="N7">
-        <v>1.351785</v>
+        <v>53.920898</v>
       </c>
       <c r="O7">
-        <v>0.03747491560496034</v>
+        <v>0.9413350460969786</v>
       </c>
       <c r="P7">
-        <v>0.03747491560496033</v>
+        <v>0.9413350460969786</v>
       </c>
       <c r="Q7">
-        <v>46.82551307834333</v>
+        <v>1867.80716940565</v>
       </c>
       <c r="R7">
-        <v>421.42961770509</v>
+        <v>16810.26452465085</v>
       </c>
       <c r="S7">
-        <v>0.01669415606162469</v>
+        <v>0.4156993984822177</v>
       </c>
       <c r="T7">
-        <v>0.01669415606162469</v>
+        <v>0.4156993984822177</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>103.9192913333333</v>
+        <v>49.27528633333333</v>
       </c>
       <c r="H8">
-        <v>311.757874</v>
+        <v>147.825859</v>
       </c>
       <c r="I8">
-        <v>0.445475481188675</v>
+        <v>0.2093958876983056</v>
       </c>
       <c r="J8">
-        <v>0.445475481188675</v>
+        <v>0.2093958876983056</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4804876666666667</v>
+        <v>0.450595</v>
       </c>
       <c r="N8">
-        <v>1.441463</v>
+        <v>1.351785</v>
       </c>
       <c r="O8">
-        <v>0.03996101767120729</v>
+        <v>0.02359906163447434</v>
       </c>
       <c r="P8">
-        <v>0.03996101767120729</v>
+        <v>0.02359906163447434</v>
       </c>
       <c r="Q8">
-        <v>49.93193781440689</v>
+        <v>22.20319764536833</v>
       </c>
       <c r="R8">
-        <v>449.3874403296621</v>
+        <v>199.828778808315</v>
       </c>
       <c r="S8">
-        <v>0.01780165357587021</v>
+        <v>0.004941546459797782</v>
       </c>
       <c r="T8">
-        <v>0.01780165357587021</v>
+        <v>0.004941546459797781</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>103.9192913333333</v>
+        <v>49.27528633333333</v>
       </c>
       <c r="H9">
-        <v>311.757874</v>
+        <v>147.825859</v>
       </c>
       <c r="I9">
-        <v>0.445475481188675</v>
+        <v>0.2093958876983056</v>
       </c>
       <c r="J9">
-        <v>0.445475481188675</v>
+        <v>0.2093958876983056</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.934199999999999</v>
+        <v>0.66954</v>
       </c>
       <c r="N9">
-        <v>29.8026</v>
+        <v>2.00862</v>
       </c>
       <c r="O9">
-        <v>0.8262038118549848</v>
+        <v>0.03506589226854703</v>
       </c>
       <c r="P9">
-        <v>0.8262038118549848</v>
+        <v>0.03506589226854703</v>
       </c>
       <c r="Q9">
-        <v>1032.3550239636</v>
+        <v>32.99177521161999</v>
       </c>
       <c r="R9">
-        <v>9291.1952156724</v>
+        <v>296.92597690458</v>
       </c>
       <c r="S9">
-        <v>0.3680535406460169</v>
+        <v>0.007342653639505558</v>
       </c>
       <c r="T9">
-        <v>0.3680535406460169</v>
+        <v>0.007342653639505556</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.51716233333334</v>
+        <v>49.27528633333333</v>
       </c>
       <c r="H10">
-        <v>148.551487</v>
+        <v>147.825859</v>
       </c>
       <c r="I10">
-        <v>0.2122674378791094</v>
+        <v>0.2093958876983056</v>
       </c>
       <c r="J10">
-        <v>0.2122674378791094</v>
+        <v>0.2093958876983056</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.158627</v>
+        <v>17.97363266666667</v>
       </c>
       <c r="N10">
-        <v>3.475881</v>
+        <v>53.920898</v>
       </c>
       <c r="O10">
-        <v>0.09636025486884757</v>
+        <v>0.9413350460969786</v>
       </c>
       <c r="P10">
-        <v>0.09636025486884757</v>
+        <v>0.9413350460969786</v>
       </c>
       <c r="Q10">
-        <v>57.371921242783</v>
+        <v>885.6558961001534</v>
       </c>
       <c r="R10">
-        <v>516.347291185047</v>
+        <v>7970.903064901381</v>
       </c>
       <c r="S10">
-        <v>0.02045414441438825</v>
+        <v>0.1971116875990023</v>
       </c>
       <c r="T10">
-        <v>0.02045414441438825</v>
+        <v>0.1971116875990022</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.51716233333334</v>
+        <v>35.50107333333333</v>
       </c>
       <c r="H11">
-        <v>148.551487</v>
+        <v>106.50322</v>
       </c>
       <c r="I11">
-        <v>0.2122674378791094</v>
+        <v>0.1508622134550082</v>
       </c>
       <c r="J11">
-        <v>0.2122674378791094</v>
+        <v>0.1508622134550081</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,27 +1119,27 @@
         <v>1.351785</v>
       </c>
       <c r="O11">
-        <v>0.03747491560496034</v>
+        <v>0.02359906163447434</v>
       </c>
       <c r="P11">
-        <v>0.03747491560496033</v>
+        <v>0.02359906163447434</v>
       </c>
       <c r="Q11">
-        <v>22.31218576158834</v>
+        <v>15.99660613863333</v>
       </c>
       <c r="R11">
-        <v>200.809671854295</v>
+        <v>143.9694552477</v>
       </c>
       <c r="S11">
-        <v>0.007954704320200784</v>
+        <v>0.003560206673637962</v>
       </c>
       <c r="T11">
-        <v>0.007954704320200782</v>
+        <v>0.003560206673637962</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>49.51716233333334</v>
+        <v>35.50107333333333</v>
       </c>
       <c r="H12">
-        <v>148.551487</v>
+        <v>106.50322</v>
       </c>
       <c r="I12">
-        <v>0.2122674378791094</v>
+        <v>0.1508622134550082</v>
       </c>
       <c r="J12">
-        <v>0.2122674378791094</v>
+        <v>0.1508622134550081</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4804876666666667</v>
+        <v>0.66954</v>
       </c>
       <c r="N12">
-        <v>1.441463</v>
+        <v>2.00862</v>
       </c>
       <c r="O12">
-        <v>0.03996101767120729</v>
+        <v>0.03506589226854703</v>
       </c>
       <c r="P12">
-        <v>0.03996101767120729</v>
+        <v>0.03506589226854703</v>
       </c>
       <c r="Q12">
-        <v>23.79238578949789</v>
+        <v>23.7693886396</v>
       </c>
       <c r="R12">
-        <v>214.131472105481</v>
+        <v>213.9244977564</v>
       </c>
       <c r="S12">
-        <v>0.008482422836108984</v>
+        <v>0.005290118124407863</v>
       </c>
       <c r="T12">
-        <v>0.008482422836108984</v>
+        <v>0.005290118124407862</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>49.51716233333334</v>
+        <v>35.50107333333333</v>
       </c>
       <c r="H13">
-        <v>148.551487</v>
+        <v>106.50322</v>
       </c>
       <c r="I13">
-        <v>0.2122674378791094</v>
+        <v>0.1508622134550082</v>
       </c>
       <c r="J13">
-        <v>0.2122674378791094</v>
+        <v>0.1508622134550081</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.934199999999999</v>
+        <v>17.97363266666667</v>
       </c>
       <c r="N13">
-        <v>29.8026</v>
+        <v>53.920898</v>
       </c>
       <c r="O13">
-        <v>0.8262038118549848</v>
+        <v>0.9413350460969786</v>
       </c>
       <c r="P13">
-        <v>0.8262038118549848</v>
+        <v>0.9413350460969786</v>
       </c>
       <c r="Q13">
-        <v>491.9133940518</v>
+        <v>638.0832513657289</v>
       </c>
       <c r="R13">
-        <v>4427.2205464662</v>
+        <v>5742.74926229156</v>
       </c>
       <c r="S13">
-        <v>0.1753761663084114</v>
+        <v>0.1420118886569623</v>
       </c>
       <c r="T13">
-        <v>0.1753761663084114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>43.05432033333333</v>
-      </c>
-      <c r="H14">
-        <v>129.162961</v>
-      </c>
-      <c r="I14">
-        <v>0.1845628835768525</v>
-      </c>
-      <c r="J14">
-        <v>0.1845628835768525</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>1.158627</v>
-      </c>
-      <c r="N14">
-        <v>3.475881</v>
-      </c>
-      <c r="O14">
-        <v>0.09636025486884757</v>
-      </c>
-      <c r="P14">
-        <v>0.09636025486884757</v>
-      </c>
-      <c r="Q14">
-        <v>49.88389800484899</v>
-      </c>
-      <c r="R14">
-        <v>448.955082043641</v>
-      </c>
-      <c r="S14">
-        <v>0.01778452650079495</v>
-      </c>
-      <c r="T14">
-        <v>0.01778452650079495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>43.05432033333333</v>
-      </c>
-      <c r="H15">
-        <v>129.162961</v>
-      </c>
-      <c r="I15">
-        <v>0.1845628835768525</v>
-      </c>
-      <c r="J15">
-        <v>0.1845628835768525</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.450595</v>
-      </c>
-      <c r="N15">
-        <v>1.351785</v>
-      </c>
-      <c r="O15">
-        <v>0.03747491560496034</v>
-      </c>
-      <c r="P15">
-        <v>0.03747491560496033</v>
-      </c>
-      <c r="Q15">
-        <v>19.40006147059833</v>
-      </c>
-      <c r="R15">
-        <v>174.600553235385</v>
-      </c>
-      <c r="S15">
-        <v>0.006916478485850668</v>
-      </c>
-      <c r="T15">
-        <v>0.006916478485850667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>43.05432033333333</v>
-      </c>
-      <c r="H16">
-        <v>129.162961</v>
-      </c>
-      <c r="I16">
-        <v>0.1845628835768525</v>
-      </c>
-      <c r="J16">
-        <v>0.1845628835768525</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4804876666666667</v>
-      </c>
-      <c r="N16">
-        <v>1.441463</v>
-      </c>
-      <c r="O16">
-        <v>0.03996101767120729</v>
-      </c>
-      <c r="P16">
-        <v>0.03996101767120729</v>
-      </c>
-      <c r="Q16">
-        <v>20.68706991688256</v>
-      </c>
-      <c r="R16">
-        <v>186.183629251943</v>
-      </c>
-      <c r="S16">
-        <v>0.007375320652063576</v>
-      </c>
-      <c r="T16">
-        <v>0.007375320652063576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>43.05432033333333</v>
-      </c>
-      <c r="H17">
-        <v>129.162961</v>
-      </c>
-      <c r="I17">
-        <v>0.1845628835768525</v>
-      </c>
-      <c r="J17">
-        <v>0.1845628835768525</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>9.934199999999999</v>
-      </c>
-      <c r="N17">
-        <v>29.8026</v>
-      </c>
-      <c r="O17">
-        <v>0.8262038118549848</v>
-      </c>
-      <c r="P17">
-        <v>0.8262038118549848</v>
-      </c>
-      <c r="Q17">
-        <v>427.7102290553999</v>
-      </c>
-      <c r="R17">
-        <v>3849.3920614986</v>
-      </c>
-      <c r="S17">
-        <v>0.1524865579381433</v>
-      </c>
-      <c r="T17">
-        <v>0.1524865579381433</v>
+        <v>0.1420118886569623</v>
       </c>
     </row>
   </sheetData>
